--- a/data/source.xlsx
+++ b/data/source.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EclipseProjects\Kostentr-gerrechnung\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11172" tabRatio="645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="11170" tabRatio="645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Auftrag" sheetId="1" r:id="rId1"/>
@@ -566,7 +571,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1044,7 +1049,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1058,12 +1063,12 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1077,35 +1082,35 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1113,7 +1118,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1121,7 +1126,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1129,7 +1134,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1137,7 +1142,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1145,148 +1150,148 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
     </row>
   </sheetData>
@@ -1300,13 +1305,13 @@
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1329,7 +1334,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1346,7 +1351,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -1363,7 +1368,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1380,7 +1385,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -1397,7 +1402,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1414,7 +1419,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -1431,7 +1436,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -1448,7 +1453,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -1465,7 +1470,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -1482,7 +1487,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -1499,7 +1504,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -1516,7 +1521,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -1533,7 +1538,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -1550,7 +1555,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -1567,7 +1572,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -1584,7 +1589,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -1601,7 +1606,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
@@ -1618,7 +1623,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -1635,7 +1640,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -1652,7 +1657,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
@@ -1669,7 +1674,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1686,7 +1691,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -1703,7 +1708,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -1720,7 +1725,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1737,7 +1742,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -1754,7 +1759,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -1771,7 +1776,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
@@ -1788,7 +1793,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -1805,7 +1810,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
@@ -1822,7 +1827,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
@@ -1839,7 +1844,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
@@ -1856,7 +1861,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
@@ -1873,7 +1878,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>61</v>
       </c>
@@ -1890,7 +1895,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>62</v>
       </c>
@@ -1907,7 +1912,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>63</v>
       </c>
@@ -1924,7 +1929,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>64</v>
       </c>
@@ -1941,7 +1946,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>65</v>
       </c>
@@ -1958,7 +1963,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
@@ -1975,7 +1980,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>67</v>
       </c>
@@ -1992,7 +1997,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>68</v>
       </c>
@@ -2009,7 +2014,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>69</v>
       </c>
@@ -2026,7 +2031,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>70</v>
       </c>
@@ -2043,7 +2048,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>71</v>
       </c>
@@ -2060,7 +2065,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>72</v>
       </c>
@@ -2077,7 +2082,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>73</v>
       </c>
@@ -2094,7 +2099,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>74</v>
       </c>
@@ -2111,7 +2116,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>75</v>
       </c>
@@ -2128,7 +2133,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>76</v>
       </c>
@@ -2145,97 +2150,97 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="C68" s="3"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="C69" s="3"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
     </row>
   </sheetData>
@@ -2247,13 +2252,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -2267,7 +2272,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -2281,7 +2286,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -2295,7 +2300,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -2309,7 +2314,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -2323,7 +2328,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -2337,7 +2342,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -2351,7 +2356,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -2365,7 +2370,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -2379,7 +2384,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -2393,7 +2398,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -2407,7 +2412,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -2421,7 +2426,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -2435,7 +2440,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -2449,7 +2454,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -2463,7 +2468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -2477,7 +2482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -2491,7 +2496,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -2505,7 +2510,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -2519,7 +2524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -2533,7 +2538,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -2547,7 +2552,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -2561,7 +2566,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -2575,7 +2580,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -2589,7 +2594,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -2603,7 +2608,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -2617,7 +2622,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -2631,7 +2636,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -2645,7 +2650,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -2659,7 +2664,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
@@ -2673,7 +2678,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -2687,7 +2692,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
@@ -2701,7 +2706,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -2715,7 +2720,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
@@ -2729,7 +2734,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
@@ -2743,7 +2748,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -2757,7 +2762,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
@@ -2771,7 +2776,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
@@ -2785,7 +2790,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -2799,7 +2804,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -2813,7 +2818,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
@@ -2827,7 +2832,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
@@ -2841,7 +2846,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
@@ -2855,7 +2860,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
@@ -2869,7 +2874,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -2883,7 +2888,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
@@ -2897,7 +2902,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
@@ -2911,7 +2916,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
@@ -2925,7 +2930,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
@@ -2939,7 +2944,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>53</v>
       </c>
@@ -2953,7 +2958,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
@@ -2967,7 +2972,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
@@ -2981,7 +2986,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -2995,7 +3000,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -3009,7 +3014,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -3023,7 +3028,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -3037,7 +3042,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -3051,7 +3056,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -3065,7 +3070,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -3079,7 +3084,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -3093,7 +3098,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
@@ -3107,7 +3112,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
@@ -3121,7 +3126,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>59</v>
       </c>
@@ -3135,7 +3140,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>60</v>
       </c>
@@ -3149,7 +3154,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>60</v>
       </c>
@@ -3163,7 +3168,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>61</v>
       </c>
@@ -3177,7 +3182,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>61</v>
       </c>
@@ -3191,7 +3196,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>62</v>
       </c>
@@ -3205,7 +3210,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>62</v>
       </c>
@@ -3219,7 +3224,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>63</v>
       </c>
@@ -3233,7 +3238,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3247,7 +3252,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3261,7 +3266,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3275,7 +3280,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3289,7 +3294,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>65</v>
       </c>
@@ -3303,7 +3308,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>66</v>
       </c>
@@ -3317,7 +3322,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>66</v>
       </c>
@@ -3331,7 +3336,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>67</v>
       </c>
@@ -3345,7 +3350,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>67</v>
       </c>
@@ -3359,7 +3364,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>68</v>
       </c>
@@ -3373,7 +3378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>68</v>
       </c>
@@ -3387,7 +3392,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>69</v>
       </c>
@@ -3401,7 +3406,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>69</v>
       </c>
@@ -3415,7 +3420,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>70</v>
       </c>
@@ -3429,7 +3434,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>70</v>
       </c>
@@ -3443,7 +3448,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>71</v>
       </c>
@@ -3457,7 +3462,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>72</v>
       </c>
@@ -3471,7 +3476,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>73</v>
       </c>
@@ -3485,7 +3490,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>74</v>
       </c>
@@ -3499,7 +3504,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>75</v>
       </c>
@@ -3513,7 +3518,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>76</v>
       </c>
@@ -3527,129 +3532,129 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="C113" s="3"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="C114" s="3"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="C119" s="3"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
     </row>
   </sheetData>
@@ -3668,12 +3673,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -3684,7 +3689,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>107</v>
       </c>
@@ -3695,7 +3700,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
@@ -3706,7 +3711,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>111</v>
       </c>
@@ -3717,7 +3722,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>113</v>
       </c>
@@ -3728,7 +3733,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>115</v>
       </c>
@@ -3739,7 +3744,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>117</v>
       </c>
@@ -3750,7 +3755,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>119</v>
       </c>
@@ -3761,7 +3766,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>121</v>
       </c>
@@ -3772,7 +3777,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>123</v>
       </c>
@@ -3783,7 +3788,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>125</v>
       </c>
@@ -3794,46 +3799,46 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
@@ -3849,9 +3854,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -3859,7 +3864,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -3867,7 +3872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>138</v>
       </c>
@@ -3875,7 +3880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>139</v>
       </c>
@@ -3883,7 +3888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -3891,7 +3896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -3899,7 +3904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>142</v>
       </c>
@@ -3907,7 +3912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>143</v>
       </c>
@@ -3915,7 +3920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>144</v>
       </c>
@@ -3923,7 +3928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>145</v>
       </c>
@@ -3931,7 +3936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -3939,7 +3944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>147</v>
       </c>
@@ -3947,7 +3952,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>148</v>
       </c>
@@ -3955,7 +3960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -3963,7 +3968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>150</v>
       </c>
@@ -3971,7 +3976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>151</v>
       </c>
@@ -3979,7 +3984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>152</v>
       </c>
@@ -3987,7 +3992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>153</v>
       </c>
@@ -3995,7 +4000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>154</v>
       </c>
@@ -4003,7 +4008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>155</v>
       </c>
@@ -4011,7 +4016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>156</v>
       </c>
@@ -4028,24 +4033,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+    <sheetView topLeftCell="B13" workbookViewId="0">
       <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="27.88671875" customWidth="1"/>
+    <col min="11" max="11" width="27.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -4060,11 +4065,11 @@
       </c>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -4090,7 +4095,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -4116,7 +4121,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -4139,7 +4144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -4162,7 +4167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -4179,7 +4184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -4196,7 +4201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -4213,7 +4218,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
@@ -4227,12 +4232,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="L17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -4249,7 +4254,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -4263,7 +4268,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -4277,7 +4282,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -4291,7 +4296,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -4302,7 +4307,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -4313,7 +4318,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -4324,7 +4329,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
@@ -4338,12 +4343,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="L28" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -4363,7 +4368,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -4383,7 +4388,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -4397,45 +4402,45 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="12:12" x14ac:dyDescent="0.35">
       <c r="L33" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="12:12" x14ac:dyDescent="0.35">
       <c r="L34" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="12:12" x14ac:dyDescent="0.35">
       <c r="L35" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="12:12" x14ac:dyDescent="0.35">
       <c r="L36" s="7"/>
     </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="12:12" x14ac:dyDescent="0.35">
       <c r="L37" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="12:12" x14ac:dyDescent="0.35">
       <c r="L38" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="12:12" x14ac:dyDescent="0.35">
       <c r="L39" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="12:12" x14ac:dyDescent="0.35">
       <c r="L40" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="12:12" x14ac:dyDescent="0.35">
       <c r="L41" s="7" t="s">
         <v>175</v>
       </c>
